--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur CPTS</t>
+    <t>Profil dérivé de FrOrganization pour le cas d'usage agrégateur de la plateforme SAS - cas d'usage CPTS</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-cpts-organization-aggregator.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -588,7 +588,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-location-identifier-type"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNST"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1650,17 +1650,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.63671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.21484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.76953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1669,21 +1669,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="81.27734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="108.3828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="69.6796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -7863,7 +7863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>324</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>334</v>
       </c>
@@ -9923,12 +9923,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ80">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
